--- a/sample outputs/geocoded_sample_3.xlsx
+++ b/sample outputs/geocoded_sample_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,374 +434,444 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Property Address</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Beds</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Full Baths</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Half Baths</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Locality</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Lot Size</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Property Address_latitude</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Property Address_longitude</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Address_latitude</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Address_longitude</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1 James Schofield Dr Adelaide Airport SA 5950 Australia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0 Gateway</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
         <v>725000</v>
       </c>
-      <c r="H2" t="n">
-        <v>-34.935283812198</v>
-      </c>
-      <c r="I2" t="n">
-        <v>138.535202675748</v>
+      <c r="J2" t="n">
+        <v>61.577023</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-149.255874</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>78 Mountain St Ultimo NSW 2007 Australia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1003 Winchester Blvd.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>0.21 Acres</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>452900</v>
       </c>
-      <c r="H3" t="n">
-        <v>-33.883798701635</v>
-      </c>
-      <c r="I3" t="n">
-        <v>151.196630099414</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>55 Elizabeth St Sydney NSW 2000 Australia</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3239 Spearhead Way</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3076</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Under 1/2 Acre, </t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>379900</v>
       </c>
-      <c r="H4" t="n">
-        <v>-33.8682121632</v>
-      </c>
-      <c r="I4" t="n">
-        <v>151.21042422004</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>210-218 Surf Parade Surfers Paradise QLD 4217 Australia</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>600 Talladega</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>3154</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>379000</v>
       </c>
-      <c r="H5" t="n">
-        <v>-28.016629381113</v>
-      </c>
-      <c r="I5" t="n">
-        <v>153.431022695001</v>
+      <c r="J5" t="n">
+        <v>33.434936</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-86.10620400000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12 Resort Dr, Hamilton Island QLD 4803 Australia</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3457 Brisol Avenue</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3236</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.34 Acres</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>349900</v>
       </c>
-      <c r="H6" t="n">
-        <v>-20.346973796799</v>
-      </c>
-      <c r="I6" t="n">
-        <v>148.956901172684</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8 Friday Dr, Thredbo NSW 2625 Australia</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>234 Via Spoleto</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2688</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Under 1/2 Acre, </t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>330000</v>
       </c>
-      <c r="H7" t="n">
-        <v>-36.501475068043</v>
-      </c>
-      <c r="I7" t="n">
-        <v>148.309596622507</v>
+      <c r="J7" t="n">
+        <v>42.7453344</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.7384305</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1 Summit Rd, Mount Buller VIC 3723 Australia</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2425 Cripple Creek</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>8263</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>35</v>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>279900</v>
       </c>
-      <c r="H8" t="n">
-        <v>-37.146068400306</v>
-      </c>
-      <c r="I8" t="n">
-        <v>146.450083472976</v>
+      <c r="J8" t="n">
+        <v>38.74569</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-105.178358</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>140 Springs Ln, Fingal VIC 3939 Australia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>522 Emerald Street</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1172</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Under 1/2 Acre, </t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>254000</v>
       </c>
-      <c r="H9" t="n">
-        <v>-38.406963501315</v>
-      </c>
-      <c r="I9" t="n">
-        <v>144.843088986745</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>163 Yulara Dr, Yulara NT 0872 Australia</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1302 Veteran's Drive</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1932</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>4</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>0.27 Acres</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>252900</v>
       </c>
-      <c r="H10" t="n">
-        <v>-25.238381188939</v>
-      </c>
-      <c r="I10" t="n">
-        <v>130.983420894939</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>999 Lady Denman Dr, Canberra ACT 2611 Australia</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>343 Via Rucce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>0.16 Acres</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>219900</v>
       </c>
-      <c r="H11" t="n">
-        <v>-35.299361703742</v>
-      </c>
-      <c r="I11" t="n">
-        <v>149.071709311709</v>
+      <c r="J11" t="n">
+        <v>41.592183016051</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-109.268268015826</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1166 Ecclestone Rd, Riverside TAS 7250 Australia</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>913 Madison Dr</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>1344</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rock Springs, WY 82901</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Under 1/2 Acre, </t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>209000</v>
       </c>
-      <c r="H12" t="n">
-        <v>-41.415543163101</v>
-      </c>
-      <c r="I12" t="n">
-        <v>147.084873991803</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
